--- a/config_7.27/permission_server_config.xlsx
+++ b/config_7.27/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="2063">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9258,6 +9258,27 @@
   </si>
   <si>
     <t>欢乐福利（欢乐捕鱼）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>banner_show_not_new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动弹出非新玩家</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -9526,7 +9547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9843,6 +9864,9 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10119,11 +10143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q505"/>
+  <dimension ref="A1:Q507"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15227,6 +15251,17 @@
         <v>496</v>
       </c>
     </row>
+    <row r="507" spans="1:17">
+      <c r="A507" s="118" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B507" s="118" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C507" s="1">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15238,7 +15273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -28962,13 +28997,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1093"/>
+  <dimension ref="A1:I1094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C926" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1079" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1095" sqref="C1095"/>
+      <selection pane="bottomRight" activeCell="A1094" sqref="A1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55053,6 +55088,29 @@
       </c>
       <c r="H1093" s="21"/>
       <c r="I1093" s="21"/>
+    </row>
+    <row r="1094" spans="1:9">
+      <c r="A1094" s="21">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="21">
+        <v>500</v>
+      </c>
+      <c r="C1094" s="18" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D1094" s="18" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E1094" s="18">
+        <v>5</v>
+      </c>
+      <c r="F1094" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1094" s="44" t="s">
+        <v>1948</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/config_7.27/permission_server_config.xlsx
+++ b/config_7.27/permission_server_config.xlsx
@@ -6540,7 +6540,7 @@
     <t>新人限时福利（冲金鸡）</t>
   </si>
   <si>
-    <t>actp_rank_lxjkh_024_jfphb_rank</t>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>游戏达人</t>
@@ -9047,17 +9047,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9070,9 +9069,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9087,19 +9138,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -9107,36 +9167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9151,49 +9184,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9325,19 +9325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9349,7 +9343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9367,25 +9373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9403,13 +9403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9421,13 +9421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9439,43 +9463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9513,11 +9513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9537,17 +9543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9576,21 +9576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9602,11 +9587,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9616,10 +9616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9628,25 +9628,25 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -9655,109 +9655,109 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15519,7 +15519,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G375" sqref="G375"/>
+      <selection pane="bottomRight" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
